--- a/data/fichier_carte.xlsx
+++ b/data/fichier_carte.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\imtd-server\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A086C0D9-D63B-4699-B3C2-DBBC655CB98E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C8682B-CBCE-41C1-BD24-CA335CDE2093}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34875" yWindow="255" windowWidth="21765" windowHeight="14850" activeTab="3" xr2:uid="{F2A707A2-A7B0-E84A-A9D6-5519D85058CD}"/>
+    <workbookView xWindow="29235" yWindow="1110" windowWidth="22050" windowHeight="12570" activeTab="1" xr2:uid="{F2A707A2-A7B0-E84A-A9D6-5519D85058CD}"/>
   </bookViews>
   <sheets>
     <sheet name="ENTREPRISES" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3545" uniqueCount="2391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3546" uniqueCount="2391">
   <si>
     <t>ALSTOM</t>
   </si>
@@ -8577,7 +8577,7 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:N300"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
     </sheetView>
@@ -18345,8 +18345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A97E8DE2-FB8C-4C2A-9581-6072F72B95A7}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -18377,9 +18377,8 @@
       <c r="E1" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="10" t="str">
-        <f>UPPER("city")</f>
-        <v>CITY</v>
+      <c r="F1" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>72</v>
@@ -19665,8 +19664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42CF2C21-C899-EB4A-BD2B-7DA0907EFDAE}">
   <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -19959,7 +19958,7 @@
       </c>
       <c r="R5" s="101"/>
     </row>
-    <row r="6" spans="1:20" s="13" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" s="13" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A6" s="64" t="s">
         <v>471</v>
       </c>
